--- a/Testdata/TC_54.xlsx
+++ b/Testdata/TC_54.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ITMAAB+LCAAAAAAAAAPtWulvG8cV/1cW/JQAoWaX1EGp4w0oknKISqRBUraVogiWuyNp6+Uuu4ckfkuBFinSFEVROEV6op9SFKhrtAmQ2j3+l8CS3U/9F/Lm2N3ZgxYpKxcgw7A575jjzZv3fm928JtnE0c5IX5ge+6tiraiVhTimp5lu0e3KlF4WNXWK2/quHNmEueO4RsTEoKwAlpusHUW2Lcqx2E43ULo9PR05bS+4vlHqKaqGrq/tzs0j8nEqNpuEBquSSqJlnW5VkXHLWuyR0LDMkKDa96qdIfdlRaxzTbQ9gzXOCL+ynYU2C4Jgo4b2qFNAqrpEyMkrfbeXb4wvbayvqJhVKCnktuR7VhcLiPJ6UIOhiUje0L0mqo1qmqjWtdGmrqlbmzV11cam+rbsWIiiHeNIBwS/8Q2GWEYGpMpU1cbdU1T1Y36OkalQtBXagAd9x1rQE7sgFgt4jjBUhZBYgObZgirXs6YKkaSrujo6lO47RvT45EdOmS5aQz2tpWJ+4ayP2zD/2JOaWc63vF8YoIdrzS1Hjnt+8K8o+kucEfHth/O2sZs6b72A+L3p9RYy6nquO25YdMhfrg/hT0nFrgEMPTQjwhGc5ipUtsOTPhtuxGx9EPDCWSlDBPf8/wHwdQwSQ/OM6J9nLqOZ1jgeKEdhLYZpB0UOPiO702hSxh923OsHehWTLGEkXTddcHGdNxtz3uQ7z3LxGxb2QbDpk6MMBYv0PHw2Dvtu85sGI0D07fHxGpvx9KlPExPptBuRUHoTWAWKQlzmkSZwR84iXkybhPTnhjOHQesGOh16CVDwM0o9A7tsOU50cRNzJmj4nuwohE5S1aYtHEfdtelRvfcrhvLczOXsrIKA+80GbPIYEaQyM3AjJ2syMgLt4EWb1+Rw3aErnLHdiBRyHshUbNeMTwmJCx1Cc7BNCbu0NSjb8/omBilFAyeCe4NVF3b3Nyoqhr8HakQlOlfGDlh445rsR+QaNarWo0G71QuZuJeNOmP4QifsDXpGvByJAyrcLYdw30A1Ht2eNxrxrMv4WC+5rnyRR6Gwzp1jBkjJ3aRabjrmk5kER4Duu4hc0o6N76Nc9m4QNqFU61jw52NZlMIyYG9FcKPWxVI0ltB6AMMqOimF7mhP6PBAiMheplOEI1dNoDhLKxz6JMfRoA+ZjuRa7Y8a/HRLG6dfdcOF5+hF/k8Ai6uwqxHY2EUtAmNKizOL6xvLrOmwF9KfOKSiefa5uLWBiPT2VtXWEgQnypJA83xrTY5NCIH8E0I6ecozSw5Mm4GD/IyMgnv+04cHHSKHgOAj6Y1WTEhsVKItGJ6E0pAgNruDTGS5Sk6MEnHPdo13KMI8m9yAPP0JDTR1DHyDTegy0nSbS5KlQvh+EBzGKDzU96PmMX4KfeAi1FODo/IZOr5hrMHhrF3xP4ILAFpes8Ij0ULwr5DzNjIKFVNtLIziyd+mRiL33wZ9GSIeJIjMiG6Fg5UU5mUhukq98B/nZbh2GOfh584y5XxYMNS4BQHKrq4JUFUvAdQrEBi+i6ZUQSbNgSduawWM7gD04ijDwerjdqaWq9B0qdtzFY8IIajdMDrQ6J03RMShBNQ21IGJLAt+GUbzpbyFhkTG7IFM5GI10try3p4Jw6IbCpNmG+WkhWAVHxkQ7wtCiacVEE/IIbvzCRBvtRdzwS5i5/+9/x3j589+fji/YcvPv3x///1m2f//sX5o5/Aj4u//+P8g1/zZXJhPDLGDmETGm03Gmp9FfwsIWFqXMRQoxWZIaMdHDCwmLSxKH5Yo9Xptm7vbrN4khBjdR57Ea2rZl6UNod8EWwgtqUo9gQuoo/i+CTaGa4Uy3Va55yQrLTMn6fIbfH86cfPn/51rrYwWAazrFEscjlm0bSCXIJZaP3Iy4K4Ol2tqmvVWk0SzsngARTZUAUkdupael1TN9VaXdWSWG4ljlwmlGeJnkbGEcrpcVKL44jEBeR2zGSOP4IjkrD5UZAawkU//dmLvz3MSAnrCkq2F5gcy/d0MBQ3WNe9wUgZ9vcHrY4y6gypn6Q8SY53/hJhMXpynjJO5bqR4byhEJderCgVKBYqineoEMM8VmZwEqVzmHG2Miof6Ipd5md52/eiKd8RSSGllkgm0aRUoyTWMB6zZyHopKwScT7X839+UqYgFtJOkZ+4I0j8ktFwhsNJEl+c2o/+8+yz9549eXLx+Jfnn/0o04MYJymZwc/hNMnNxO0h5Il8k6Pge0NmzAfqO1J+EURacdzxbDcMdG2dFRuihUFVo72x/3F3AimPdczsBfQcBb9lBJ2zUBxsvYdRlgDznBqQbb20LEsIPIandv3f7/9w8dtPLj58/OK9v5y//+fzDz58/vSPLx79iZ+6i4ePL37+SET5fCJgc6HFHgeBCrs6MBV6GhWau5XP3/2V4nqhApBDiVhE+vzdj6TO6EQZOEl7BkiXTCQ7hYKorEz1FGkqyRwyeokKBwAtmsLqiYRIYt7UNtNB3q7Srui5Y4zXuqNqFBDFAzT1OqwkK5wqL6onVHhKvbOh1rSa4PLZ0CWMjUAy/W3HGwPIiBmsNs+JZLRerpDKsvFu7/a3m7upCJ9E37eglFfpBQP9gWNISVNKN4hbsatJFOAC8DMjh16nFMSKrKRnKYwhcS9x2LRo+NNVlRX+2fyYkcCtyPc5IHLFffcwmgIYjm+v5vPZlZ6Ef3scq8qIOG1321k+tCUuJMIsmxIYn4UmweJhqhvQKxAOZ3vUNGkTeJlrQDCHuNLmSOsEcKWPaNzp+L7nlwaflBOL7QGShoiCUosnMmxPOeq20r2KCXHA+9rRt/K9Vr93tzMYtfYHr+0PlTaUSYYffEcxAsUndDOJ9fr3Xw2jLzrGtwTJL2OyG7x/g/dv8P4N3v+G4P34W2AR78ecrwTva/PxvvZOY1NrrK6vrla11bWN6urheLPaaJCN6ppq1Ym5utYwGtbXUArEu1byiWDuHBbPYVdxgJf5ZMmeXndIvZb7updH1ksi3uVVJHrJrt3Udje13XXXdlqxtuMfIXKfJiAgWTrAxwFFkhCLKIqQktoC+JJ+DpKyYPrQiI+XtEWZYCalGv1Axqd813AiQoMERvwnA6J08OGo2YPMLb5S5for635CP79MHZv4xQF6zeX6R/JaOFTNVzoSNTF0Gvyavh0eQwe22Z8S/q0kgChZkEtUaUWZKillWqzozNfvItp4XIFctYZDvPpAmZCKctkj344Dm0xHUhmDpKIDlZUYKFNToFeuH9Bc3D+fE880zT2ltxIlqalUbh7aLxW+HO3nITqjLA7gUSZ/oSJAT0loLvZGBYCNyiHvHHJBJXH/UmKZVyX4o5QYDyDhQcThByrCSHQ9t8JIhlzqK6G+xUEAkgiomJSzJJTJoiifMWUCktIbKklmORrKZiMkohL6Nt8mirG/ydeJ6CoXiOj67gmlJNO2Dw8PAC3eTx86xQQ+47QX2uD5tYA/kARQJN8Qr6Gu11kWwzNlijdX1steWS9eP38pt9kofYWS4qM2cQDOLfsqONbe806urAtusaxqN+g7lrDzcg9pErOkHchPuKkPXdcLbu6PTd8H9EFffC795Dp+jjUw3KMlZ8WXxBTpuyYYPQYHth+E92mWFb845SChHHBkdl+vcfh1n7cP9JrAYyCA5N5RZprx6Q75g3rP2bUn9pKPndQ4BGQ7AVtOpxxodZfzGFpU98hZiJHUAyTl8Q8g//P3gMv0xh0XKoxEnz5dDeyj43DZiW2MDWKRsVo1x6RWXbXURnWTkHpV0+Bfw6zVVHWNPnwVnUNwscnpkoOgeMOkmu0LCupepCEzAAA=</t>
+          <t>gzQAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCUbMvuLANZsjdCbcuQ5N11XoIRObJZU6TCi229pUCLFGmKoig2RXpFn1IU6HbRJkC628t/Cdbe7VP/Qs/M8DKkqLXpddEWdWAgnHObmTMz53xnNIvfOZ84yin1A9tz7y1py+qSQl3Ts2z36N5SFI5r2urSOwbeOjeps098MqEhCCug5QYb54F9b+k4DKcbCJ2dnS2f1Zc9/wjpqqqhR7s7A/OYTkjNdoOQuCZdSrWsq7WWDNy2Jrs0JBYJidC8t9QddJfb1DY7QNslLjmi/vJmFNguDYItN7RDmwZM06ckpO3O7gMxMUNfXl3WMJqjZ5Kbke1YQi4nKeixHHRLh/aEGrqqqzW1WdMbQ3V9Q1/bWNGX15qN9xLFVBDvkCAcUP/UNjlhEJLJlKurTb2hrutrKzpGpUJgK3OAgXuO1aendkCtNnWcoJJHULyALTOEWVdzpoqRpBsbuvkQ7vtkejy0Q4dWVd/2fGqCo27U9x496/mx/4bTHeAOj20/nHXIrLKtg4D6vSnzRjVVA3c8N2w51A8PprCo1II1B4YR+hHFaAEzU+rYgQnfthtRyxgTJ5CVckz80PNPgikx6R4cWMRsnLmORyzYWaEdhLYZZAbmOHjf96ZgEnrf9BxrG8zGQyxhpKa7LviY9bvpeSdF63km5puAbwdY1AkJE/E5Oh4ce2c915kNolFg+vaIWp3NRLqUh9nRi7XbURB6ExhFRsKCJlFm8B8ctSIZd6hpT4iz74AXA6MOVnIE3IpCb2yHbc+JJm7qzgIVP4QZDel5OsO0jXuwui5zuud23UReuLmUlVfoe2dpn/MM7gSJ3ArMZJPNM4rCHaAlyzfP4SvCZrltO5AJ5LWQqPldMTimNCzdEoKDWdDbZrnF2JyxPjHKKBh2JmxvoELYVFdr8KerQ1Xd4H/Qc8rGW66VyWl6ra5JcgkT70WT3giO8Cmfk6EBr0DCMAtn0yHuCVAf2uHxXisZfQkHizkvlJ/nYTisU4fMODn1i0zDXdd0IouKGNB1x3xTsrGJZVzIxnOkHTjVBibubDibQswN7I0QPu4tQRbeCEIf8vySYXqRG/ozFiwwikWv0gmikcs7IM61dcY+/SACeDHbjlyz7VnX780S3jlw7fD6I/QiX0TA66tw77FYGAUdyqIKj/PX1jerzCnwK4lPXDrxXNu8vrfByWz01g0mEiSnStJAC/ZWh45J5ACACSH9HGWZpUDGreCkKCOT8IHvJMHBYPAwAHxoWpNlExIrw0DLpjdhBASw7OEAI1meoQOTbrlHO8Q9iiD/pgewSE9DE0sdQ5+4AZtOmm4LUapcCCcHWsAAQ5zyXsQ9Jk65B1yMCnJ4SCdTzyfOLjjG3o7XJ8YSkKZ3SXgctyDsO9RMnIwy1VQrP7Jk4FeJ8fgtpsFORhxPCkQuxOYikGgmk9Ewm+Uu7F+nTRx75Ivwk2S5Mh4sWAackkDFJlcRRCVrANUIJKZv0RmDqFkjpvMtqyUMsYFZxDEG/UZTX1HrALt5G/MZ9ylxlC3Y9SFVuu4pDcIJqG0ofRrYFnzZxNlQ3qUjakO24C6K43VlbVkPbycBkQ+lBePNU/ICkIqPbIi384IpJ1MwDinxnZkkKKa645kgd/n9v1/84umLZ59ffvz41Zff/edffvbirz+6ePI9+Lj8458uPvmpmKYQxkMycigf0HCz2VTrDdhnKQkz5yKOGq3IDDnt8JCDxbSN4+qGN9pb3fb9nU0eT1Jioi5iL2KF08yLsuZATIJ3xJcUJTtBiBjDJD7F7RxXiuUGK2ROaV5a5i9SFL54+fzzl89/v1A7dlgGSrT19RWGRVTtKsyiaXNyKWZhBaIoC+LyU2vU1JWarkvCBRnchyoaqoDUT13LqGvquqrXVS2N5Va6kcuEiqzY0pAcoYKeILUFjki3gNxOmHzjD+GIpGxxFKRGvEW//MGrPzzOScXejSl5KzA4nu9ZZyhpcNN7/aEy6B3021vKcGvA9knGk+SE8dcIx72n5ym3qVw3Is43FOqymxNlCYqFJcUbK5SYx8oMTqJ0DnObrYwqOrqhyeIo7/teNBUrIilk1BLJNJqUapTEGs7j/pwLOhmrRFyM9eLPX5QpxBPpZMjP6O9uKhM33ZechnMcQZL48an97G8vvvroxbNnl09/fPHVd3IW4n7Skhn2OZwmuZluewh5cb4pUPDDAXfmifq+lF9iIqs49j3bDQNDW+XFRtzCoKoxa/z/uDuBlMcNc38BvUDB75Jg6zyMD7axh1GeAOOcEsi2XlaWpQQRwzO//uOXv7r8+ReXnz599dHvLj7+7cUnn758/utXT34jTt3l46eXP3wSR/liIuBjYcWeAIEKvzowFXYaFZa7la8//InieqECkEOJeET6+sPPJGNsoBycZJYB0qUDyQ9hTlRWZnqKNJR0DDm9VEUAgDZLYfVUIk5i3tQ2s07eqzFT7NxxxlvdYS0KqOIBmnobZpIXzpSvqxeriJS6v6bqmh5zxWjYFEYkkFx/3/FGADISBq/NCyI5rdcrZLK8v/s7vc3WTiYiBtHzLSjlVXbBwD5wN0hAZbK9JApwAeyZkcOuUObE5lk4+ZJCF4rvIsYti4U8Q1VVrcb/pDSXk8DtyPcFCHLjS+xBNAUAnNxYLebzazwJ8+4JfCqj4Kzd7eT50Ja4kPzybEbgfB6OYpYITd2AXXsICLvHXJM1gZe7+gN3xPfUAl2dApb0EYs1W77v+aUBJ+MkYruAniGKoMzjqQxiXQqkbWVrlRCSIHeHuO8Q9x3ivkPcd4j7/xBxHww6CxB3wlmAuEsUqwNtbTHQ1t5v1hurTatu1UYrhNQaaxqtretr9VrTNJtrDWKuNMnafwCDJ4tVcje/cAzXT0o3WffXbcWSpbztSHorafv1AfWKQHd1+YZes2p3RdVdUXXbRZWWFlUJKA/E7X/hNwEISJbRPuj32729BxCLGHiQchmjbvWHIPDWwUDpeI5D/OCbCgkUn7Iih1pvs99hpOSXPeER/aXtGKubab3EfpkSQ35AnIiyIIGR+OT4k3U+GLb2IGHHPw8V7JWZn7DfPaaOTf35DvZa1ewjeS4CoRbLDYmaOjoLfi3fDo/BgG32plT8SBFAlJyTS1VZWZcpKWVavPIrFs5xtPGEAr1pIYVEOYFyIRUVskexnQQ2mY6kugRJtQYqqyxQrpRAb1w2oIVwfzEnGWmWe0qvBkpSU6ncIpBfKnw1yC8ic065Pm5HufyF5nF5RkILITeaw9WoHOkuIM+ppNu/lFi2q1L8UUpMOpDwIBLwA82jR3Q717FIhlzqG6G+64MAJBHQfFLOk1Aui6JixpQJSEpvqCSZFWgon41QHJXQ/9o1Xtz3f/M9HrrJzR26vQs6KbF07PH4EBDio+xVUUIQI86ssIbIqXOYA0mgRNob8dOj290s18MwZYp3d8VV74qvXzP/W66RUfbkI8NEHeoAhKv6BDfR3vVOb6wL26KqajfoOVbs52qvVlK3ZAbkB9FsD1UdTMv3AVOwB5SVXzDv2O5Jt9rsjfpIH2l11VxZIY01strUaX210RxTuqKvrDdGAJS4UYb7mQlW17MnQNU60VhEktWz51p94h5VtCYczBXZkybwFD+rcSmbtvG27QfhI5b24y9BOUwphwIqPjLit/qPRPvQ0GICCCC5M5QbdRJ6QvF23nN27Ild8dmTmsSnvBHYBtOpQH5VFxSq/D16HmIkWQCUMPo2ABLxMrCKNXGqoORJ9RNbg2hU2RxKlPeBzzbWzbS3LACUN9fmD9Ft5w0GwGHkTU103cA+Og6rrqu+vl6nq1Sv6WPTrDWgUQMYOKpZZLyuqeq4brF/cpIah8Rh07OKnbB0YwcRcarrocI/JTL+BZrb5HWDNAAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,6 +103,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -399,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +419,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei [CONVERTCUR(US Dollars; as reported)]</t>
+          <t>Real Estate Investment: Residential: Hebei</t>
         </is>
       </c>
     </row>
@@ -558,7 +559,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -582,101 +583,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
-        <v>35765</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3271.34</v>
-      </c>
-      <c r="C13" s="6">
-        <v>393.222199739963</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>36495</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6384.48</v>
-      </c>
-      <c r="C14" s="6">
-        <v>771.233913701741</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>36861</v>
-      </c>
-      <c r="B15" s="6">
-        <v>7111.74</v>
-      </c>
-      <c r="C15" s="6">
-        <v>859.070071772984</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>37226</v>
-      </c>
-      <c r="B16" s="6">
-        <v>8354.02</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1009.30428768043</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>37591</v>
-      </c>
-      <c r="B17" s="6">
-        <v>10540.67</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1273.48149401055</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>37956</v>
-      </c>
-      <c r="B18" s="6">
-        <v>16421.36</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1983.93092658332</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>38322</v>
-      </c>
-      <c r="B19" s="6">
-        <v>22352.63</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2700.63671950512</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>38687</v>
-      </c>
-      <c r="B20" s="6">
-        <v>29205.22</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3564.22016109348</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
+      <c r="A13" s="6">
         <v>39052</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B13" s="7">
         <v>37962.97</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C13" s="7">
         <v>4762.01847291155</v>
       </c>
     </row>
@@ -684,4 +597,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265F3EA1-97AD-4C02-A026-2EE0AE5B8B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_54.xlsx
+++ b/Testdata/TC_54.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>gzQAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCUbMvuLANZsjdCbcuQ5N11XoIRObJZU6TCi229pUCLFGmKoig2RXpFn1IU6HbRJkC628t/Cdbe7VP/Qs/M8DKkqLXpddEWdWAgnHObmTMz53xnNIvfOZ84yin1A9tz7y1py+qSQl3Ts2z36N5SFI5r2urSOwbeOjeps098MqEhCCug5QYb54F9b+k4DKcbCJ2dnS2f1Zc9/wjpqqqhR7s7A/OYTkjNdoOQuCZdSrWsq7WWDNy2Jrs0JBYJidC8t9QddJfb1DY7QNslLjmi/vJmFNguDYItN7RDmwZM06ckpO3O7gMxMUNfXl3WMJqjZ5Kbke1YQi4nKeixHHRLh/aEGrqqqzW1WdMbQ3V9Q1/bWNGX15qN9xLFVBDvkCAcUP/UNjlhEJLJlKurTb2hrutrKzpGpUJgK3OAgXuO1aendkCtNnWcoJJHULyALTOEWVdzpoqRpBsbuvkQ7vtkejy0Q4dWVd/2fGqCo27U9x496/mx/4bTHeAOj20/nHXIrLKtg4D6vSnzRjVVA3c8N2w51A8PprCo1II1B4YR+hHFaAEzU+rYgQnfthtRyxgTJ5CVckz80PNPgikx6R4cWMRsnLmORyzYWaEdhLYZZAbmOHjf96ZgEnrf9BxrG8zGQyxhpKa7LviY9bvpeSdF63km5puAbwdY1AkJE/E5Oh4ce2c915kNolFg+vaIWp3NRLqUh9nRi7XbURB6ExhFRsKCJlFm8B8ctSIZd6hpT4iz74AXA6MOVnIE3IpCb2yHbc+JJm7qzgIVP4QZDel5OsO0jXuwui5zuud23UReuLmUlVfoe2dpn/MM7gSJ3ArMZJPNM4rCHaAlyzfP4SvCZrltO5AJ5LWQqPldMTimNCzdEoKDWdDbZrnF2JyxPjHKKBh2JmxvoELYVFdr8KerQ1Xd4H/Qc8rGW66VyWl6ra5JcgkT70WT3giO8Cmfk6EBr0DCMAtn0yHuCVAf2uHxXisZfQkHizkvlJ/nYTisU4fMODn1i0zDXdd0IouKGNB1x3xTsrGJZVzIxnOkHTjVBibubDibQswN7I0QPu4tQRbeCEIf8vySYXqRG/ozFiwwikWv0gmikcs7IM61dcY+/SACeDHbjlyz7VnX780S3jlw7fD6I/QiX0TA66tw77FYGAUdyqIKj/PX1jerzCnwK4lPXDrxXNu8vrfByWz01g0mEiSnStJAC/ZWh45J5ACACSH9HGWZpUDGreCkKCOT8IHvJMHBYPAwAHxoWpNlExIrw0DLpjdhBASw7OEAI1meoQOTbrlHO8Q9iiD/pgewSE9DE0sdQ5+4AZtOmm4LUapcCCcHWsAAQ5zyXsQ9Jk65B1yMCnJ4SCdTzyfOLjjG3o7XJ8YSkKZ3SXgctyDsO9RMnIwy1VQrP7Jk4FeJ8fgtpsFORhxPCkQuxOYikGgmk9Ewm+Uu7F+nTRx75Ivwk2S5Mh4sWAackkDFJlcRRCVrANUIJKZv0RmDqFkjpvMtqyUMsYFZxDEG/UZTX1HrALt5G/MZ9ylxlC3Y9SFVuu4pDcIJqG0ofRrYFnzZxNlQ3qUjakO24C6K43VlbVkPbycBkQ+lBePNU/ICkIqPbIi384IpJ1MwDinxnZkkKKa645kgd/n9v1/84umLZ59ffvz41Zff/edffvbirz+6ePI9+Lj8458uPvmpmKYQxkMycigf0HCz2VTrDdhnKQkz5yKOGq3IDDnt8JCDxbSN4+qGN9pb3fb9nU0eT1Jioi5iL2KF08yLsuZATIJ3xJcUJTtBiBjDJD7F7RxXiuUGK2ROaV5a5i9SFL54+fzzl89/v1A7dlgGSrT19RWGRVTtKsyiaXNyKWZhBaIoC+LyU2vU1JWarkvCBRnchyoaqoDUT13LqGvquqrXVS2N5Va6kcuEiqzY0pAcoYKeILUFjki3gNxOmHzjD+GIpGxxFKRGvEW//MGrPzzOScXejSl5KzA4nu9ZZyhpcNN7/aEy6B3021vKcGvA9knGk+SE8dcIx72n5ym3qVw3Is43FOqymxNlCYqFJcUbK5SYx8oMTqJ0DnObrYwqOrqhyeIo7/teNBUrIilk1BLJNJqUapTEGs7j/pwLOhmrRFyM9eLPX5QpxBPpZMjP6O9uKhM33ZechnMcQZL48an97G8vvvroxbNnl09/fPHVd3IW4n7Skhn2OZwmuZluewh5cb4pUPDDAXfmifq+lF9iIqs49j3bDQNDW+XFRtzCoKoxa/z/uDuBlMcNc38BvUDB75Jg6zyMD7axh1GeAOOcEsi2XlaWpQQRwzO//uOXv7r8+ReXnz599dHvLj7+7cUnn758/utXT34jTt3l46eXP3wSR/liIuBjYcWeAIEKvzowFXYaFZa7la8//InieqECkEOJeET6+sPPJGNsoBycZJYB0qUDyQ9hTlRWZnqKNJR0DDm9VEUAgDZLYfVUIk5i3tQ2s07eqzFT7NxxxlvdYS0KqOIBmnobZpIXzpSvqxeriJS6v6bqmh5zxWjYFEYkkFx/3/FGADISBq/NCyI5rdcrZLK8v/s7vc3WTiYiBtHzLSjlVXbBwD5wN0hAZbK9JApwAeyZkcOuUObE5lk4+ZJCF4rvIsYti4U8Q1VVrcb/pDSXk8DtyPcFCHLjS+xBNAUAnNxYLebzazwJ8+4JfCqj4Kzd7eT50Ja4kPzybEbgfB6OYpYITd2AXXsICLvHXJM1gZe7+gN3xPfUAl2dApb0EYs1W77v+aUBJ+MkYruAniGKoMzjqQxiXQqkbWVrlRCSIHeHuO8Q9x3ivkPcd4j7/xBxHww6CxB3wlmAuEsUqwNtbTHQ1t5v1hurTatu1UYrhNQaaxqtretr9VrTNJtrDWKuNMnafwCDJ4tVcje/cAzXT0o3WffXbcWSpbztSHorafv1AfWKQHd1+YZes2p3RdVdUXXbRZWWFlUJKA/E7X/hNwEISJbRPuj32729BxCLGHiQchmjbvWHIPDWwUDpeI5D/OCbCgkUn7Iih1pvs99hpOSXPeER/aXtGKubab3EfpkSQ35AnIiyIIGR+OT4k3U+GLb2IGHHPw8V7JWZn7DfPaaOTf35DvZa1ewjeS4CoRbLDYmaOjoLfi3fDo/BgG32plT8SBFAlJyTS1VZWZcpKWVavPIrFs5xtPGEAr1pIYVEOYFyIRUVskexnQQ2mY6kugRJtQYqqyxQrpRAb1w2oIVwfzEnGWmWe0qvBkpSU6ncIpBfKnw1yC8ic065Pm5HufyF5nF5RkILITeaw9WoHOkuIM+ppNu/lFi2q1L8UUpMOpDwIBLwA82jR3Q717FIhlzqG6G+64MAJBHQfFLOk1Aui6JixpQJSEpvqCSZFWgon41QHJXQ/9o1Xtz3f/M9HrrJzR26vQs6KbF07PH4EBDio+xVUUIQI86ssIbIqXOYA0mgRNob8dOj290s18MwZYp3d8VV74qvXzP/W66RUfbkI8NEHeoAhKv6BDfR3vVOb6wL26KqajfoOVbs52qvVlK3ZAbkB9FsD1UdTMv3AVOwB5SVXzDv2O5Jt9rsjfpIH2l11VxZIY01strUaX210RxTuqKvrDdGAJS4UYb7mQlW17MnQNU60VhEktWz51p94h5VtCYczBXZkybwFD+rcSmbtvG27QfhI5b24y9BOUwphwIqPjLit/qPRPvQ0GICCCC5M5QbdRJ6QvF23nN27Ild8dmTmsSnvBHYBtOpQH5VFxSq/D16HmIkWQCUMPo2ABLxMrCKNXGqoORJ9RNbg2hU2RxKlPeBzzbWzbS3LACUN9fmD9Ft5w0GwGHkTU103cA+Og6rrqu+vl6nq1Sv6WPTrDWgUQMYOKpZZLyuqeq4brF/cpIah8Rh07OKnbB0YwcRcarrocI/JTL+BZrb5HWDNAAA</t>
+          <t>ITMAAB+LCAAAAAAAAAPtWulvG8cV/1cW/JQAoWaX1EGp4w0oknKISqRBUraVogiWuyNp6+Uuu4ckfkuBFinSFEVROEV6op9SFKhrtAmQ2j3+l8CS3U/9F/Lm2N3ZgxYpKxcgw7A575jjzZv3fm928JtnE0c5IX5ge+6tiraiVhTimp5lu0e3KlF4WNXWK2/quHNmEueO4RsTEoKwAlpusHUW2Lcqx2E43ULo9PR05bS+4vlHqKaqGrq/tzs0j8nEqNpuEBquSSqJlnW5VkXHLWuyR0LDMkKDa96qdIfdlRaxzTbQ9gzXOCL+ynYU2C4Jgo4b2qFNAqrpEyMkrfbeXb4wvbayvqJhVKCnktuR7VhcLiPJ6UIOhiUje0L0mqo1qmqjWtdGmrqlbmzV11cam+rbsWIiiHeNIBwS/8Q2GWEYGpMpU1cbdU1T1Y36OkalQtBXagAd9x1rQE7sgFgt4jjBUhZBYgObZgirXs6YKkaSrujo6lO47RvT45EdOmS5aQz2tpWJ+4ayP2zD/2JOaWc63vF8YoIdrzS1Hjnt+8K8o+kucEfHth/O2sZs6b72A+L3p9RYy6nquO25YdMhfrg/hT0nFrgEMPTQjwhGc5ipUtsOTPhtuxGx9EPDCWSlDBPf8/wHwdQwSQ/OM6J9nLqOZ1jgeKEdhLYZpB0UOPiO702hSxh923OsHehWTLGEkXTddcHGdNxtz3uQ7z3LxGxb2QbDpk6MMBYv0PHw2Dvtu85sGI0D07fHxGpvx9KlPExPptBuRUHoTWAWKQlzmkSZwR84iXkybhPTnhjOHQesGOh16CVDwM0o9A7tsOU50cRNzJmj4nuwohE5S1aYtHEfdtelRvfcrhvLczOXsrIKA+80GbPIYEaQyM3AjJ2syMgLt4EWb1+Rw3aErnLHdiBRyHshUbNeMTwmJCx1Cc7BNCbu0NSjb8/omBilFAyeCe4NVF3b3Nyoqhr8HakQlOlfGDlh445rsR+QaNarWo0G71QuZuJeNOmP4QifsDXpGvByJAyrcLYdw30A1Ht2eNxrxrMv4WC+5rnyRR6Gwzp1jBkjJ3aRabjrmk5kER4Duu4hc0o6N76Nc9m4QNqFU61jw52NZlMIyYG9FcKPWxVI0ltB6AMMqOimF7mhP6PBAiMheplOEI1dNoDhLKxz6JMfRoA+ZjuRa7Y8a/HRLG6dfdcOF5+hF/k8Ai6uwqxHY2EUtAmNKizOL6xvLrOmwF9KfOKSiefa5uLWBiPT2VtXWEgQnypJA83xrTY5NCIH8E0I6ecozSw5Mm4GD/IyMgnv+04cHHSKHgOAj6Y1WTEhsVKItGJ6E0pAgNruDTGS5Sk6MEnHPdo13KMI8m9yAPP0JDTR1DHyDTegy0nSbS5KlQvh+EBzGKDzU96PmMX4KfeAi1FODo/IZOr5hrMHhrF3xP4ILAFpes8Ij0ULwr5DzNjIKFVNtLIziyd+mRiL33wZ9GSIeJIjMiG6Fg5UU5mUhukq98B/nZbh2GOfh584y5XxYMNS4BQHKrq4JUFUvAdQrEBi+i6ZUQSbNgSduawWM7gD04ijDwerjdqaWq9B0qdtzFY8IIajdMDrQ6J03RMShBNQ21IGJLAt+GUbzpbyFhkTG7IFM5GI10try3p4Jw6IbCpNmG+WkhWAVHxkQ7wtCiacVEE/IIbvzCRBvtRdzwS5i5/+9/x3j589+fji/YcvPv3x///1m2f//sX5o5/Aj4u//+P8g1/zZXJhPDLGDmETGm03Gmp9FfwsIWFqXMRQoxWZIaMdHDCwmLSxKH5Yo9Xptm7vbrN4khBjdR57Ea2rZl6UNod8EWwgtqUo9gQuoo/i+CTaGa4Uy3Va55yQrLTMn6fIbfH86cfPn/51rrYwWAazrFEscjlm0bSCXIJZaP3Iy4K4Ol2tqmvVWk0SzsngARTZUAUkdupael1TN9VaXdWSWG4ljlwmlGeJnkbGEcrpcVKL44jEBeR2zGSOP4IjkrD5UZAawkU//dmLvz3MSAnrCkq2F5gcy/d0MBQ3WNe9wUgZ9vcHrY4y6gypn6Q8SY53/hJhMXpynjJO5bqR4byhEJderCgVKBYqineoEMM8VmZwEqVzmHG2Miof6Ipd5md52/eiKd8RSSGllkgm0aRUoyTWMB6zZyHopKwScT7X839+UqYgFtJOkZ+4I0j8ktFwhsNJEl+c2o/+8+yz9549eXLx+Jfnn/0o04MYJymZwc/hNMnNxO0h5Il8k6Pge0NmzAfqO1J+EURacdzxbDcMdG2dFRuihUFVo72x/3F3AimPdczsBfQcBb9lBJ2zUBxsvYdRlgDznBqQbb20LEsIPIandv3f7/9w8dtPLj58/OK9v5y//+fzDz58/vSPLx79iZ+6i4ePL37+SET5fCJgc6HFHgeBCrs6MBV6GhWau5XP3/2V4nqhApBDiVhE+vzdj6TO6EQZOEl7BkiXTCQ7hYKorEz1FGkqyRwyeokKBwAtmsLqiYRIYt7UNtNB3q7Srui5Y4zXuqNqFBDFAzT1OqwkK5wqL6onVHhKvbOh1rSa4PLZ0CWMjUAy/W3HGwPIiBmsNs+JZLRerpDKsvFu7/a3m7upCJ9E37eglFfpBQP9gWNISVNKN4hbsatJFOAC8DMjh16nFMSKrKRnKYwhcS9x2LRo+NNVlRX+2fyYkcCtyPc5IHLFffcwmgIYjm+v5vPZlZ6Ef3scq8qIOG1321k+tCUuJMIsmxIYn4UmweJhqhvQKxAOZ3vUNGkTeJlrQDCHuNLmSOsEcKWPaNzp+L7nlwaflBOL7QGShoiCUosnMmxPOeq20r2KCXHA+9rRt/K9Vr93tzMYtfYHr+0PlTaUSYYffEcxAsUndDOJ9fr3Xw2jLzrGtwTJL2OyG7x/g/dv8P4N3v+G4P34W2AR78ecrwTva/PxvvZOY1NrrK6vrla11bWN6urheLPaaJCN6ppq1Ym5utYwGtbXUArEu1byiWDuHBbPYVdxgJf5ZMmeXndIvZb7updH1ksi3uVVJHrJrt3Udje13XXXdlqxtuMfIXKfJiAgWTrAxwFFkhCLKIqQktoC+JJ+DpKyYPrQiI+XtEWZYCalGv1Axqd813AiQoMERvwnA6J08OGo2YPMLb5S5for635CP79MHZv4xQF6zeX6R/JaOFTNVzoSNTF0Gvyavh0eQwe22Z8S/q0kgChZkEtUaUWZKillWqzozNfvItp4XIFctYZDvPpAmZCKctkj344Dm0xHUhmDpKIDlZUYKFNToFeuH9Bc3D+fE880zT2ltxIlqalUbh7aLxW+HO3nITqjLA7gUSZ/oSJAT0loLvZGBYCNyiHvHHJBJXH/UmKZVyX4o5QYDyDhQcThByrCSHQ9t8JIhlzqK6G+xUEAkgiomJSzJJTJoiifMWUCktIbKklmORrKZiMkohL6Nt8mirG/ydeJ6CoXiOj67gmlJNO2Dw8PAC3eTx86xQQ+47QX2uD5tYA/kARQJN8Qr6Gu11kWwzNlijdX1steWS9eP38pt9kofYWS4qM2cQDOLfsqONbe806urAtusaxqN+g7lrDzcg9pErOkHchPuKkPXdcLbu6PTd8H9EFffC795Dp+jjUw3KMlZ8WXxBTpuyYYPQYHth+E92mWFb845SChHHBkdl+vcfh1n7cP9JrAYyCA5N5RZprx6Q75g3rP2bUn9pKPndQ4BGQ7AVtOpxxodZfzGFpU98hZiJHUAyTl8Q8g//P3gMv0xh0XKoxEnz5dDeyj43DZiW2MDWKRsVo1x6RWXbXURnWTkHpV0+Bfw6zVVHWNPnwVnUNwscnpkoOgeMOkmu0LCupepCEzAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,7 +103,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -400,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,7 +418,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei</t>
+          <t>Real Estate Investment: Residential: Hebei [CONVERTCUR(US Dollars; as reported)]</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -583,13 +582,101 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3271.34</v>
+      </c>
+      <c r="C13" s="6">
+        <v>393.222199739963</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6384.48</v>
+      </c>
+      <c r="C14" s="6">
+        <v>771.233913701741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7111.74</v>
+      </c>
+      <c r="C15" s="6">
+        <v>859.070071772984</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B16" s="6">
+        <v>8354.02</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1009.30428768043</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10540.67</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1273.48149401055</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B18" s="6">
+        <v>16421.36</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1983.93092658332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B19" s="6">
+        <v>22352.63</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2700.63671950512</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B20" s="6">
+        <v>29205.22</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3564.22016109348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
         <v>39052</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B21" s="6">
         <v>37962.97</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C21" s="6">
         <v>4762.01847291155</v>
       </c>
     </row>
@@ -597,48 +684,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265F3EA1-97AD-4C02-A026-2EE0AE5B8B07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>